--- a/amk-main-public/epnTKP.xlsx
+++ b/amk-main-public/epnTKP.xlsx
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>сек</t>
+  </si>
+  <si>
+    <t>Для поворотный арматуры</t>
+  </si>
+  <si>
+    <t>Взрывозащита/Рудничное/АЭС и тд</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1165,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2152650" cy="1362075"/>
+    <xdr:ext cx="2019300" cy="1276350"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1"/>
@@ -1177,7 +1183,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="19050" y="38100"/>
-          <a:ext cx="2152650" cy="1362075"/>
+          <a:ext cx="2019300" cy="1276350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1481,8 +1487,8 @@
   </sheetPr>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="T11" sqref="T11" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="G21" sqref="G21:O21" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1493,7 +1499,7 @@
     <col min="4" max="4" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="8" customWidth="1" bestFit="1"/>
     <col min="8" max="8" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
@@ -1612,7 +1618,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" customHeight="1" ht="1">
+    <row r="6" customHeight="1" ht="0">
       <c r="A6" s="73"/>
       <c r="B6" s="74"/>
       <c r="C6" s="74"/>
@@ -1902,7 +1908,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
@@ -1944,7 +1950,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" customHeight="1" ht="35">
+    <row r="20" customHeight="1" ht="34">
       <c r="A20" s="19" t="s">
         <v>33</v>
       </c>
@@ -2044,7 +2050,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" customHeight="1" ht="49">
+    <row r="24" customHeight="1" ht="48">
       <c r="A24" s="19" t="s">
         <v>44</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>48</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
@@ -2094,7 +2100,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" customHeight="1" ht="31">
+    <row r="26" customHeight="1" ht="30">
       <c r="A26" s="19" t="s">
         <v>50</v>
       </c>
@@ -2102,7 +2108,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
@@ -2119,7 +2125,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" customHeight="1" ht="19">
+    <row r="27" customHeight="1" ht="24">
       <c r="A27" s="19" t="s">
         <v>52</v>
       </c>
@@ -2165,7 +2171,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" customHeight="1" ht="56">
+    <row r="29" customHeight="1" ht="55">
       <c r="A29" s="19" t="s">
         <v>100</v>
       </c>
@@ -2190,7 +2196,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" customHeight="1" ht="47">
+    <row r="30" customHeight="1" ht="46">
       <c r="A30" s="19" t="s">
         <v>57</v>
       </c>
@@ -2288,7 +2294,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" customHeight="1" ht="52">
+    <row r="34" customHeight="1" ht="51">
       <c r="A34" s="19" t="s">
         <v>65</v>
       </c>
@@ -2313,7 +2319,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" customHeight="1" ht="49">
+    <row r="35" customHeight="1" ht="48">
       <c r="A35" s="19" t="s">
         <v>67</v>
       </c>
@@ -2338,7 +2344,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" customHeight="1" ht="49">
+    <row r="36" customHeight="1" ht="48">
       <c r="A36" s="19" t="s">
         <v>68</v>
       </c>
@@ -2363,7 +2369,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" customHeight="1" ht="37">
+    <row r="37" customHeight="1" ht="36">
       <c r="A37" s="19" t="s">
         <v>71</v>
       </c>
@@ -2386,7 +2392,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" customHeight="1" ht="35">
+    <row r="38" customHeight="1" ht="34">
       <c r="A38" s="19" t="s">
         <v>73</v>
       </c>
@@ -2409,7 +2415,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" customHeight="1" ht="21">
+    <row r="39" customHeight="1" ht="39">
       <c r="A39" s="19" t="s">
         <v>75</v>
       </c>
@@ -2503,7 +2509,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" customHeight="1" ht="35">
+    <row r="43" customHeight="1" ht="34">
       <c r="A43" s="19" t="s">
         <v>81</v>
       </c>
@@ -2528,7 +2534,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" customHeight="1" ht="35">
+    <row r="44" customHeight="1" ht="34">
       <c r="A44" s="19" t="s">
         <v>82</v>
       </c>
@@ -2691,7 +2697,7 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" customHeight="1" ht="20">
+    <row r="51" customHeight="1" ht="19">
       <c r="A51" s="6"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2710,7 +2716,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" customHeight="1" ht="20">
+    <row r="52" customHeight="1" ht="19">
       <c r="A52" s="6"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2729,7 +2735,7 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" customHeight="1" ht="31">
+    <row r="53" customHeight="1" ht="30">
       <c r="A53" s="6"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2747,7 +2753,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" customHeight="1" ht="32">
+    <row r="54" customHeight="1" ht="31">
       <c r="A54" s="6"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2784,7 +2790,7 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
     </row>
-    <row r="56" customHeight="1" ht="20">
+    <row r="56" customHeight="1" ht="19">
       <c r="A56" s="6"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2803,7 +2809,7 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" customHeight="1" ht="20">
+    <row r="57" customHeight="1" ht="19">
       <c r="A57" s="6"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>

--- a/amk-main-public/epnTKP.xlsx
+++ b/amk-main-public/epnTKP.xlsx
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>Взрывозащита/Рудничное/АЭС и тд</t>
+  </si>
+  <si>
+    <t>Дата формирования  ТКП</t>
   </si>
 </sst>
 </file>
@@ -1487,8 +1490,8 @@
   </sheetPr>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="G21" sqref="G21:O21" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="B48" sqref="B48" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1950,7 +1953,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" customHeight="1" ht="34">
+    <row r="20" customHeight="1" ht="33">
       <c r="A20" s="19" t="s">
         <v>33</v>
       </c>
@@ -2171,7 +2174,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" customHeight="1" ht="55">
+    <row r="29" customHeight="1" ht="54">
       <c r="A29" s="19" t="s">
         <v>100</v>
       </c>
@@ -2196,7 +2199,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" customHeight="1" ht="46">
+    <row r="30" customHeight="1" ht="45">
       <c r="A30" s="19" t="s">
         <v>57</v>
       </c>
@@ -2392,7 +2395,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" customHeight="1" ht="34">
+    <row r="38" customHeight="1" ht="33">
       <c r="A38" s="19" t="s">
         <v>73</v>
       </c>
@@ -2509,7 +2512,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" customHeight="1" ht="34">
+    <row r="43" customHeight="1" ht="33">
       <c r="A43" s="19" t="s">
         <v>81</v>
       </c>
@@ -2534,7 +2537,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" customHeight="1" ht="34">
+    <row r="44" customHeight="1" ht="33">
       <c r="A44" s="19" t="s">
         <v>82</v>
       </c>
@@ -2637,7 +2640,7 @@
         <v>89</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
@@ -2697,7 +2700,7 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" customHeight="1" ht="19">
+    <row r="51" customHeight="1" ht="18">
       <c r="A51" s="6"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2716,7 +2719,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" customHeight="1" ht="19">
+    <row r="52" customHeight="1" ht="18">
       <c r="A52" s="6"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2753,7 +2756,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" customHeight="1" ht="31">
+    <row r="54" customHeight="1" ht="30">
       <c r="A54" s="6"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2790,7 +2793,7 @@
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
     </row>
-    <row r="56" customHeight="1" ht="19">
+    <row r="56" customHeight="1" ht="18">
       <c r="A56" s="6"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2809,7 +2812,7 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" customHeight="1" ht="19">
+    <row r="57" customHeight="1" ht="18">
       <c r="A57" s="6"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>

--- a/amk-main-public/epnTKP.xlsx
+++ b/amk-main-public/epnTKP.xlsx
@@ -361,12 +361,24 @@
   <si>
     <t>Дата формирования  ТКП</t>
   </si>
+  <si>
+    <t>Расшифровка дается по всем возможным параметрам, протоколы, возможыне сигналы</t>
+  </si>
+  <si>
+    <t>Расшифровка дается по всем возможным параметрам, протоколы, возможные сигналы</t>
+  </si>
+  <si>
+    <t>1)Базовый набор функций 2)Передача информации о положении выходного звена привода посредством токового сигнала (4–20 мА)  3)Передача текущего значения движущего момента на выходном звене привода посредством токового сигнала (4–20 мА).  4) Аналоговое управление приводом — прием от дистанционного пульта и отработка токового сигнала (4–20 мА) задания положения выходного звена привода с контролем наличия связи  5) Диагностирование отказов опциональных модулей.  6)Автоматический выбор активного интерфейса дистанционного управления.  /Дополнительная плата: 1)Базовый набор функций 2)Передача информации о положении выходного звена привода посредством токового сигнала (4–20 мА)  3)Передача текущего значения движущего момента на выходном звене привода посредством токового сигнала (4–20 мА).  4) Аналоговое управление приводом — прием от дистанционного пульта и отработка токового сигнала (4–20 мА) задания положения выходного звена привода с контролем наличия связи  5) Диагностирование отказов опциональных модулей.  6)Автоматический выбор активного интерфейса дистанционного управления.</t>
+  </si>
+  <si>
+    <t>ЭПНН-F05-100-4-ВЭ1/3-2-1-111 /ВИМУП-13-ВЭ110/ВЭ15X-3-110К</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +452,40 @@
       <color rgb="FF000000"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -481,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -876,6 +922,37 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="none">
+        <color theme="1"/>
+      </left>
+      <right style="none">
+        <color theme="1"/>
+      </right>
+      <top style="none">
+        <color theme="1"/>
+      </top>
+      <bottom style="none">
+        <color theme="1"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -886,7 +963,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1134,6 +1211,157 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="2" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1490,8 +1718,8 @@
   </sheetPr>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="B48" sqref="B48" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+      <selection activeCell="C12" sqref="C12:F12" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1513,8 +1741,8 @@
     <col min="15" max="15" width="14.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="0.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" style="8" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="0.7109375" customWidth="1"/>
-    <col min="20" max="20" width="37.140625" customWidth="1"/>
+    <col min="19" max="19" width="23.109375" customWidth="1"/>
+    <col min="20" max="20" width="24.77734375" customWidth="1"/>
     <col min="21" max="21" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1538,9 +1766,6 @@
       <c r="O1" s="71"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="T1" s="9" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="2" customHeight="1" ht="18">
       <c r="A2" s="72"/>
@@ -1560,9 +1785,6 @@
       <c r="O2" s="71"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="T2" s="10" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="3" customHeight="1" ht="18">
       <c r="A3" s="72"/>
@@ -1644,1042 +1866,1042 @@
       <c r="A7" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
     </row>
     <row r="8" customHeight="1" ht="21">
       <c r="A8" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="2" t="s">
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="2" t="s">
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
     </row>
     <row r="9" customHeight="1" ht="21">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="59"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
       <c r="R9" s="11"/>
     </row>
     <row r="10" customHeight="1" ht="21" customFormat="1" s="3">
       <c r="A10" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
       <c r="R10" s="12"/>
     </row>
     <row r="11" customHeight="1" ht="21" customFormat="1" s="3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="97"/>
+      <c r="C11" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="64" t="s">
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="67" t="s">
+      <c r="H11" s="100"/>
+      <c r="I11" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="69" t="s">
+      <c r="J11" s="102"/>
+      <c r="K11" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="67"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="69" t="s">
+      <c r="L11" s="101"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="68"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" customHeight="1" ht="21">
-      <c r="A12" s="18" t="s">
+      <c r="O11" s="102"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+    </row>
+    <row r="12" customHeight="1" ht="37">
+      <c r="A12" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="91"/>
     </row>
     <row r="13" customHeight="1" ht="21">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
     </row>
     <row r="14" customHeight="1" ht="21">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
+      <c r="N14" s="113"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
     </row>
     <row r="15" customHeight="1" ht="21">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118"/>
     </row>
     <row r="16" customHeight="1" ht="21">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
     </row>
     <row r="17" customHeight="1" ht="21">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
     </row>
     <row r="18" customHeight="1" ht="21">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="124" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
     </row>
     <row r="19" customHeight="1" ht="21">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
     </row>
     <row r="20" customHeight="1" ht="33">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
     </row>
     <row r="21" customHeight="1" ht="21">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="123" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
     </row>
     <row r="22" customHeight="1" ht="21">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" customHeight="1" ht="96">
-      <c r="A23" s="19" t="s">
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+    </row>
+    <row r="23" customHeight="1" ht="144">
+      <c r="A23" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="C23" s="127" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
     </row>
     <row r="24" customHeight="1" ht="48">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
     </row>
     <row r="25" customHeight="1" ht="45">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
     </row>
     <row r="26" customHeight="1" ht="30">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="118"/>
     </row>
     <row r="27" customHeight="1" ht="24">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="118"/>
     </row>
     <row r="28" customHeight="1" ht="33">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="118"/>
     </row>
     <row r="29" customHeight="1" ht="54">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="118"/>
+      <c r="Q29" s="118"/>
     </row>
     <row r="30" customHeight="1" ht="45">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="118"/>
+      <c r="Q30" s="118"/>
     </row>
     <row r="31" customHeight="1" ht="30">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="118"/>
+      <c r="Q31" s="118"/>
     </row>
     <row r="32" customHeight="1" ht="33">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="118"/>
+      <c r="Q32" s="118"/>
     </row>
     <row r="33" customHeight="1" ht="33">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="118"/>
+      <c r="Q33" s="118"/>
     </row>
     <row r="34" customHeight="1" ht="51">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="90"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="118"/>
     </row>
     <row r="35" customHeight="1" ht="48">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="90"/>
+      <c r="P35" s="118"/>
+      <c r="Q35" s="118"/>
     </row>
     <row r="36" customHeight="1" ht="48">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="118"/>
+      <c r="Q36" s="118"/>
     </row>
     <row r="37" customHeight="1" ht="36">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="118"/>
+      <c r="Q37" s="118"/>
     </row>
     <row r="38" customHeight="1" ht="33">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="118"/>
+      <c r="Q38" s="118"/>
     </row>
     <row r="39" customHeight="1" ht="39">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="123" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="118"/>
+      <c r="Q39" s="118"/>
     </row>
     <row r="40" customHeight="1" ht="42">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="42" t="s">
+      <c r="C40" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="118"/>
+      <c r="Q40" s="118"/>
     </row>
     <row r="41" customHeight="1" ht="21">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="134"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="134"/>
+      <c r="M41" s="134"/>
+      <c r="N41" s="134"/>
+      <c r="O41" s="135"/>
+      <c r="P41" s="118"/>
+      <c r="Q41" s="118"/>
     </row>
     <row r="42" customHeight="1" ht="39">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="90"/>
+      <c r="P42" s="118"/>
+      <c r="Q42" s="118"/>
     </row>
     <row r="43" customHeight="1" ht="33">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="90"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="90"/>
+      <c r="P43" s="118"/>
+      <c r="Q43" s="118"/>
     </row>
     <row r="44" customHeight="1" ht="33">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="90"/>
+      <c r="L44" s="90"/>
+      <c r="M44" s="90"/>
+      <c r="N44" s="90"/>
+      <c r="O44" s="90"/>
+      <c r="P44" s="118"/>
+      <c r="Q44" s="118"/>
     </row>
     <row r="45" customHeight="1" ht="21">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="118"/>
+      <c r="Q45" s="118"/>
     </row>
     <row r="46" customHeight="1" ht="21">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="123" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90"/>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="118"/>
+      <c r="Q46" s="118"/>
     </row>
     <row r="47" customHeight="1" ht="21">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="118"/>
     </row>
     <row r="48" customHeight="1" ht="21">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90"/>
+      <c r="M48" s="90"/>
+      <c r="N48" s="90"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="118"/>
+      <c r="Q48" s="118"/>
     </row>
     <row r="49" customHeight="1" ht="21">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90"/>
+      <c r="M49" s="90"/>
+      <c r="N49" s="90"/>
+      <c r="O49" s="90"/>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="118"/>
     </row>
     <row r="50" customHeight="1" ht="21">
       <c r="A50" s="6"/>

--- a/amk-main-public/epnTKP.xlsx
+++ b/amk-main-public/epnTKP.xlsx
@@ -373,12 +373,51 @@
   <si>
     <t>ЭПНН-F05-100-4-ВЭ1/3-2-1-111 /ВИМУП-13-ВЭ110/ВЭ15X-3-110К</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Внутренний номер ТКП (совпадает с номером ОЛ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВАШ ПЕРСОНАЛЬНЫЙ МЕНЕДЖЕР</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Организация - Заказчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Проект (необязательная ячейка): </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Коммерческая часть</t>
+  </si>
+  <si>
+    <t>Параметры заказа</t>
+  </si>
+  <si>
+    <t>Поворотный / Многооборотный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запорный / Регулирующий </t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Взрывозащита / Рудничное / АЭС и тд</t>
+  </si>
+  <si>
+    <t>Cек</t>
+  </si>
+  <si>
+    <t>Кг</t>
+  </si>
+  <si>
+    <t>На приводе / Выносной</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +525,27 @@
       <charset val="204"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -963,7 +1023,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1362,6 +1422,36 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1405,7 +1495,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip r:embed="rId2"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1719,7 +1809,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="C12" sqref="C12:F12" activeCellId="0"/>
+      <selection activeCell="S7" sqref="S7" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1747,124 +1837,124 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="33">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" customHeight="1" ht="18">
-      <c r="A2" s="72"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" customHeight="1" ht="18">
-      <c r="A3" s="72"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" customHeight="1" ht="18">
-      <c r="A4" s="72"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
+      <c r="A4" s="144"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" customHeight="1" ht="18">
-      <c r="A5" s="72"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" customHeight="1" ht="0">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
+      <c r="A6" s="145"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" customHeight="1" ht="21">
       <c r="A7" s="75" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B7" s="89"/>
       <c r="C7" s="89"/>
@@ -1885,25 +1975,25 @@
     </row>
     <row r="8" customHeight="1" ht="21">
       <c r="A8" s="75" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="B8" s="92"/>
       <c r="C8" s="92"/>
       <c r="D8" s="93"/>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="137" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90"/>
-      <c r="I8" s="94" t="s">
+      <c r="I8" s="137" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="90"/>
       <c r="K8" s="90"/>
       <c r="L8" s="90"/>
-      <c r="M8" s="94" t="s">
-        <v>5</v>
+      <c r="M8" s="137" t="s">
+        <v>124</v>
       </c>
       <c r="N8" s="90"/>
       <c r="O8" s="90"/>
@@ -1912,7 +2002,7 @@
     </row>
     <row r="9" customHeight="1" ht="21">
       <c r="A9" s="75" t="s">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="B9" s="93"/>
       <c r="C9" s="90"/>
@@ -1934,7 +2024,7 @@
     </row>
     <row r="10" customHeight="1" ht="21" customFormat="1" s="3">
       <c r="A10" s="60" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="B10" s="95"/>
       <c r="C10" s="90"/>
@@ -1956,7 +2046,7 @@
     </row>
     <row r="11" customHeight="1" ht="21" customFormat="1" s="3">
       <c r="A11" s="96" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="B11" s="97"/>
       <c r="C11" s="98" t="s">
@@ -1969,28 +2059,28 @@
         <v>10</v>
       </c>
       <c r="H11" s="100"/>
-      <c r="I11" s="101" t="s">
+      <c r="I11" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="102"/>
-      <c r="K11" s="103" t="s">
+      <c r="J11" s="100"/>
+      <c r="K11" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="101"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="103" t="s">
+      <c r="L11" s="99"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="102"/>
+      <c r="O11" s="100"/>
       <c r="P11" s="104"/>
       <c r="Q11" s="104"/>
     </row>
-    <row r="12" customHeight="1" ht="37">
+    <row r="12" customHeight="1" ht="36">
       <c r="A12" s="105" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="C12" s="90"/>
       <c r="D12" s="90"/>
@@ -2055,23 +2145,23 @@
       <c r="Q14" s="91"/>
     </row>
     <row r="15" customHeight="1" ht="21">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="117"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="141"/>
       <c r="P15" s="118"/>
       <c r="Q15" s="118"/>
     </row>
@@ -2083,7 +2173,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="120" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="D16" s="121"/>
       <c r="E16" s="121"/>
@@ -2108,7 +2198,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="124" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="D17" s="125"/>
       <c r="E17" s="125"/>
@@ -2133,7 +2223,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="124" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D18" s="125"/>
       <c r="E18" s="125"/>
@@ -2208,7 +2298,7 @@
         <v>107</v>
       </c>
       <c r="C21" s="125" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D21" s="125"/>
       <c r="E21" s="125"/>
@@ -2577,7 +2667,7 @@
         <v>69</v>
       </c>
       <c r="C36" s="127" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="D36" s="128"/>
       <c r="E36" s="128"/>
@@ -2671,7 +2761,7 @@
         <v>77</v>
       </c>
       <c r="C40" s="132" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D40" s="132"/>
       <c r="E40" s="132"/>
